--- a/xlsx/generic_business_list.xlsx
+++ b/xlsx/generic_business_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>U S M C</t>
   </si>
@@ -62,9 +62,6 @@
     <t>sheet mtl wks</t>
   </si>
   <si>
-    <t>sheet metal works</t>
-  </si>
-  <si>
     <t>furniture</t>
   </si>
   <si>
@@ -213,6 +210,39 @@
   </si>
   <si>
     <t>road machinery</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>USMC</t>
+  </si>
+  <si>
+    <t>USN</t>
+  </si>
+  <si>
+    <t>fuel and ice</t>
+  </si>
+  <si>
+    <t>restr</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>transp</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>sheet metalworks</t>
   </si>
 </sst>
 </file>
@@ -588,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,161 +631,164 @@
     <col min="5" max="5" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -763,255 +796,314 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>12</v>
       </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
         <v>20</v>
       </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B51">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:B58">
+    <sortCondition ref="B33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/generic_business_list.xlsx
+++ b/xlsx/generic_business_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="5628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="5628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
   <si>
     <t>U S M C</t>
   </si>
@@ -62,6 +62,9 @@
     <t>sheet mtl wks</t>
   </si>
   <si>
+    <t>sheet metal works</t>
+  </si>
+  <si>
     <t>furniture</t>
   </si>
   <si>
@@ -236,13 +239,70 @@
     <t>trans</t>
   </si>
   <si>
+    <t xml:space="preserve">P O </t>
+  </si>
+  <si>
+    <t>furn rms</t>
+  </si>
+  <si>
     <t>fuel</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>sheet metalworks</t>
+    <t>hdw</t>
+  </si>
+  <si>
+    <t>dictating mach service</t>
+  </si>
+  <si>
+    <t>dictating machine service</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>antiques</t>
+  </si>
+  <si>
+    <t>sand and gravel</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>dry gds</t>
+  </si>
+  <si>
+    <t>dry goods</t>
+  </si>
+  <si>
+    <t>oriental goods</t>
+  </si>
+  <si>
+    <t>oriental gds</t>
+  </si>
+  <si>
+    <t>radios</t>
+  </si>
+  <si>
+    <t>dept store</t>
+  </si>
+  <si>
+    <t>department store</t>
+  </si>
+  <si>
+    <t>mtge loans</t>
+  </si>
+  <si>
+    <t>mortgage loans</t>
+  </si>
+  <si>
+    <t>vending machines</t>
+  </si>
+  <si>
+    <t>woolen broker</t>
+  </si>
+  <si>
+    <t>boxes</t>
   </si>
 </sst>
 </file>
@@ -618,327 +678,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B14" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -946,164 +1003,265 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
       <c r="B46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
         <v>63</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B58">
-    <sortCondition ref="B33"/>
+  <sortState ref="A1:B71">
+    <sortCondition ref="B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
